--- a/Elegoo Material Properties.xlsx
+++ b/Elegoo Material Properties.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MSERVER\Library\3D Printing\FDM Printers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MSERVER\Library\3D Printing\FDM Printers\Elegoo Filament Material Properties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F620A1F7-E89C-4ECD-8EF9-EE0C6BA77EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E97DBD-FD7E-4CBD-ABEB-F082E7E3A982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="1330" windowWidth="33900" windowHeight="18530" xr2:uid="{7C8F3FB3-34AF-4556-B588-9FE4A8660C99}"/>
+    <workbookView xWindow="1930" yWindow="2470" windowWidth="33900" windowHeight="18530" xr2:uid="{7C8F3FB3-34AF-4556-B588-9FE4A8660C99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="135">
   <si>
     <t>PLA Coloured</t>
   </si>
@@ -441,6 +441,27 @@
   <si>
     <t xml:space="preserve">                    Material
  Property</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>56 ± 2</t>
+  </si>
+  <si>
+    <t>8.8% ± 1.9%</t>
+  </si>
+  <si>
+    <t>2728 ± 113</t>
+  </si>
+  <si>
+    <t>114 ± 5</t>
+  </si>
+  <si>
+    <t>797 ± 3.2</t>
+  </si>
+  <si>
+    <t>vs 2 - added PC - 18 Jul 25</t>
   </si>
 </sst>
 </file>
@@ -513,11 +534,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -530,12 +548,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -853,275 +878,292 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.6328125" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" style="2" customWidth="1"/>
-    <col min="3" max="5" width="16.6328125" style="2" customWidth="1"/>
-    <col min="6" max="14" width="16.6328125" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="16.6328125" style="1" customWidth="1"/>
+    <col min="6" max="15" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="7"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="O1" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="8"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="O4" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O6" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O7" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1161,485 +1203,522 @@
       <c r="N8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="O9" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>1.26</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>1.3</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>1.23</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>1.24</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>1.26</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>1.29</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>1.27</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>1.29</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <v>1.3</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="1">
         <v>1.0900000000000001</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="1">
         <v>1.08</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O11" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>158</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>161</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>160</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>162</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>163</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>216</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>218</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>226</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
         <v>226</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="1">
         <v>188</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="1">
         <v>214</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="1">
         <v>225</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O12" s="4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>62</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>63</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>62</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>62</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>63</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>70</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>71</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>83</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <v>83</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="1">
         <v>102</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="1">
         <v>225</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O13" s="4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>57</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>56</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>57</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>56</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>55</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>72</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>73</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>73.900000000000006</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <v>73.900000000000006</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="1">
         <v>99</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="1">
         <v>193</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+      <c r="O14" s="4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N16" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O16" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="N17" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O17" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="N18" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O18" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2" t="s">
+      <c r="L19" s="1"/>
+      <c r="M19" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="N19" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O19" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2" t="s">
+      <c r="L20" s="1"/>
+      <c r="M20" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="N20" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="O20" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A15:N15"/>
-    <mergeCell ref="A10:N10"/>
-    <mergeCell ref="A3:N3"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
@@ -1649,13 +1728,17 @@
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A10:O10"/>
+    <mergeCell ref="A15:O15"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="G1:G2"/>
   </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="62" orientation="landscape" blackAndWhite="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" orientation="landscape" blackAndWhite="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Elegoo Material Properties.xlsx
+++ b/Elegoo Material Properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MSERVER\Library\3D Printing\FDM Printers\Elegoo Filament Material Properties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E97DBD-FD7E-4CBD-ABEB-F082E7E3A982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A51EAF-FCD3-43BE-A63A-F19418D4DEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1930" yWindow="2470" windowWidth="33900" windowHeight="18530" xr2:uid="{7C8F3FB3-34AF-4556-B588-9FE4A8660C99}"/>
+    <workbookView xWindow="3440" yWindow="1570" windowWidth="33900" windowHeight="18530" xr2:uid="{7C8F3FB3-34AF-4556-B588-9FE4A8660C99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="169">
   <si>
     <t>PLA Coloured</t>
   </si>
@@ -461,14 +461,116 @@
     <t>797 ± 3.2</t>
   </si>
   <si>
-    <t>vs 2 - added PC - 18 Jul 25</t>
+    <t>Strong, tough, and impact resistant</t>
+  </si>
+  <si>
+    <t>Water and heat resistant, fast printing capability</t>
+  </si>
+  <si>
+    <t>Low warpage, excellent dimensional stability</t>
+  </si>
+  <si>
+    <t>Excellent performance under high temperatures</t>
+  </si>
+  <si>
+    <t>High strength and rigidity, abrasion resistant</t>
+  </si>
+  <si>
+    <t>Low shrinkage, precise dimensional accuracy</t>
+  </si>
+  <si>
+    <t>UV and weather resistant for long-term outdoor use</t>
+  </si>
+  <si>
+    <t>Engineering-grade material, water and heat resistant</t>
+  </si>
+  <si>
+    <t>Tough and impact-resistant for reliable durability</t>
+  </si>
+  <si>
+    <t>High toughness and elasticity, resistant to impacts</t>
+  </si>
+  <si>
+    <t>Soft and freeze resistant, performs well in cold conditions</t>
+  </si>
+  <si>
+    <t>Water and oil resistant, secure seal</t>
+  </si>
+  <si>
+    <t>Low shrinkage, superior dimensional stability</t>
+  </si>
+  <si>
+    <t>Matte surface finish, minimal layer lines</t>
+  </si>
+  <si>
+    <t>Impact resistant and durable, suitable for industrial use</t>
+  </si>
+  <si>
+    <t>High strength and wear resistance, excellent toughness</t>
+  </si>
+  <si>
+    <t>High compatibility, easy to print</t>
+  </si>
+  <si>
+    <t>Water and weather resistant for outdoor durability</t>
+  </si>
+  <si>
+    <t>High toughness and impact strength</t>
+  </si>
+  <si>
+    <t>Highly compatible and easy to print</t>
+  </si>
+  <si>
+    <t>High-speed printing, increased efficiency</t>
+  </si>
+  <si>
+    <t>Water and weather resistant for outdoor use</t>
+  </si>
+  <si>
+    <t>Tough and impact-resistant for lasting durability</t>
+  </si>
+  <si>
+    <t>Matte finish, uniform &amp; refined appearance</t>
+  </si>
+  <si>
+    <t>Wide vibrant color selection</t>
+  </si>
+  <si>
+    <t>Biodegradable and eco-friendly</t>
+  </si>
+  <si>
+    <t>Fast printing and high compatibility</t>
+  </si>
+  <si>
+    <t>Smooth and refined finish</t>
+  </si>
+  <si>
+    <t>Biodegradable and eco-friend</t>
+  </si>
+  <si>
+    <t>Smooth and glossy surface</t>
+  </si>
+  <si>
+    <t>Sharp details and high quality</t>
+  </si>
+  <si>
+    <t>Smooth and fine finish, easy to print</t>
+  </si>
+  <si>
+    <t>Highly compatible and beginner-friendly</t>
+  </si>
+  <si>
+    <t>Plant-based and biodegradable</t>
+  </si>
+  <si>
+    <t>vs 2.1 - added PC and product features - 18 Jul 25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,6 +590,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -534,7 +642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -549,10 +657,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -560,7 +668,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -878,10 +992,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -896,84 +1010,84 @@
       <c r="A1" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="10"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -1255,23 +1369,23 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="10"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -1462,23 +1576,23 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="10"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -1711,21 +1825,178 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="1:15" ht="40" x14ac:dyDescent="0.35">
+      <c r="C22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="O22" s="11" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="40" x14ac:dyDescent="0.35">
+      <c r="C23" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="40" x14ac:dyDescent="0.35">
+      <c r="C24" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="20" x14ac:dyDescent="0.35">
+      <c r="C25" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="A3:O3"/>
@@ -1736,6 +2007,14 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="G1:G2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Elegoo Material Properties.xlsx
+++ b/Elegoo Material Properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MSERVER\Library\3D Printing\FDM Printers\Elegoo Filament Material Properties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A51EAF-FCD3-43BE-A63A-F19418D4DEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{829CE1E2-9BF5-4931-BE75-C320D291C249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="1570" windowWidth="33900" windowHeight="18530" xr2:uid="{7C8F3FB3-34AF-4556-B588-9FE4A8660C99}"/>
+    <workbookView xWindow="40430" yWindow="0" windowWidth="34240" windowHeight="18530" xr2:uid="{7C8F3FB3-34AF-4556-B588-9FE4A8660C99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,15 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="178">
   <si>
     <t>PLA Coloured</t>
-  </si>
-  <si>
-    <t>PLA Plus Coloured</t>
-  </si>
-  <si>
-    <t>Rapid PLA Plus Coloured</t>
   </si>
   <si>
     <t>Drying Temp</t>
@@ -563,7 +557,40 @@
     <t>Plant-based and biodegradable</t>
   </si>
   <si>
-    <t>vs 2.1 - added PC and product features - 18 Jul 25</t>
+    <t>PLA + Coloured</t>
+  </si>
+  <si>
+    <t>Rapid PLA + Coloured</t>
+  </si>
+  <si>
+    <t>PLA CF</t>
+  </si>
+  <si>
+    <t>39 ± 3</t>
+  </si>
+  <si>
+    <t>7.5% ± 1.3%</t>
+  </si>
+  <si>
+    <t>3341 ± 172</t>
+  </si>
+  <si>
+    <t>78 ± 2</t>
+  </si>
+  <si>
+    <t>24.7 ± 1.5</t>
+  </si>
+  <si>
+    <t>Carbon fiber reinforced, higher strength and stiffness</t>
+  </si>
+  <si>
+    <t>Textured surface finish, minimal layer lines</t>
+  </si>
+  <si>
+    <t>Minimal shrinkage, higher dimensional accuracy</t>
+  </si>
+  <si>
+    <t>vs 2.2 - added PLA CF - 22 Jul 25</t>
   </si>
 </sst>
 </file>
@@ -642,7 +669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -660,7 +687,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -669,12 +699,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -992,10 +1022,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1003,396 +1033,420 @@
     <col min="1" max="1" width="21.6328125" customWidth="1"/>
     <col min="2" max="2" width="8.453125" style="1" customWidth="1"/>
     <col min="3" max="5" width="16.6328125" style="1" customWidth="1"/>
-    <col min="6" max="15" width="16.6328125" customWidth="1"/>
+    <col min="6" max="16" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="12"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="G6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="6" t="s">
+      <c r="J6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="8"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:15" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="N7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="12"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="10"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="10"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C11" s="1">
         <v>1.26</v>
@@ -1406,40 +1460,43 @@
       <c r="F11" s="1">
         <v>1.24</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="6">
         <v>1.26</v>
       </c>
       <c r="H11" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="I11" s="1">
         <v>1.29</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>1.27</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>1.29</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>1.3</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <v>1.0900000000000001</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>1.08</v>
       </c>
-      <c r="O11" s="4">
+      <c r="P11" s="4">
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1">
         <v>158</v>
@@ -1453,40 +1510,43 @@
       <c r="F12" s="1">
         <v>162</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="6">
         <v>163</v>
       </c>
       <c r="H12" s="1">
+        <v>163</v>
+      </c>
+      <c r="I12" s="1">
         <v>216</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>218</v>
-      </c>
-      <c r="J12" s="1">
-        <v>226</v>
       </c>
       <c r="K12" s="1">
         <v>226</v>
       </c>
       <c r="L12" s="1">
+        <v>226</v>
+      </c>
+      <c r="M12" s="1">
         <v>188</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12" s="1">
         <v>214</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>225</v>
       </c>
-      <c r="O12" s="4">
+      <c r="P12" s="4">
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1">
         <v>62</v>
@@ -1500,40 +1560,43 @@
       <c r="F13" s="1">
         <v>62</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="6">
         <v>63</v>
       </c>
       <c r="H13" s="1">
+        <v>64</v>
+      </c>
+      <c r="I13" s="1">
         <v>70</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>71</v>
-      </c>
-      <c r="J13" s="1">
-        <v>83</v>
       </c>
       <c r="K13" s="1">
         <v>83</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M13" s="1">
+      <c r="L13" s="1">
+        <v>83</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="1">
         <v>102</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>225</v>
       </c>
-      <c r="O13" s="4">
+      <c r="P13" s="4">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1">
         <v>57</v>
@@ -1547,291 +1610,310 @@
       <c r="F14" s="1">
         <v>56</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="6">
         <v>55</v>
       </c>
       <c r="H14" s="1">
+        <v>56</v>
+      </c>
+      <c r="I14" s="1">
         <v>72</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>73</v>
-      </c>
-      <c r="J14" s="1">
-        <v>73.900000000000006</v>
       </c>
       <c r="K14" s="1">
         <v>73.900000000000006</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M14" s="1">
+      <c r="L14" s="1">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N14" s="1">
         <v>99</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>193</v>
       </c>
-      <c r="O14" s="4">
+      <c r="P14" s="4">
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="12"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="10"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O16" s="4" t="s">
+      <c r="C18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P18" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="O18" s="4" t="s">
+      <c r="C20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P20" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="G21" s="6"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -1840,184 +1922,198 @@
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
-    </row>
-    <row r="22" spans="1:15" ht="40" x14ac:dyDescent="0.35">
-      <c r="C22" s="11" t="s">
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.35">
+      <c r="C22" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.35">
+      <c r="C23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.35">
+      <c r="C24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="20" x14ac:dyDescent="0.35">
+      <c r="C25" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E22" s="11" t="s">
+      <c r="D25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="G22" s="11" t="s">
+      <c r="G25" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="N22" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="O22" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="40" x14ac:dyDescent="0.35">
-      <c r="C23" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="I23" s="11" t="s">
+      <c r="H25" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="J23" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="M23" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="N23" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="O23" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="40" x14ac:dyDescent="0.35">
-      <c r="C24" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="K24" s="11" t="s">
+      <c r="I25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="L24" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="M24" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="N24" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="O24" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="20" x14ac:dyDescent="0.35">
-      <c r="C25" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A10:O10"/>
-    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A10:P10"/>
+    <mergeCell ref="A15:P15"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="O1:O2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="58" orientation="landscape" blackAndWhite="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="55" orientation="landscape" blackAndWhite="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Elegoo Material Properties.xlsx
+++ b/Elegoo Material Properties.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MSERVER\Library\3D Printing\FDM Printers\Elegoo Filament Material Properties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{829CE1E2-9BF5-4931-BE75-C320D291C249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71473A5C-DDF8-4A83-A8E0-2C6C0B85BA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40430" yWindow="0" windowWidth="34240" windowHeight="18530" xr2:uid="{7C8F3FB3-34AF-4556-B588-9FE4A8660C99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$55</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="191">
   <si>
     <t>PLA Coloured</t>
   </si>
@@ -590,14 +593,53 @@
     <t>Minimal shrinkage, higher dimensional accuracy</t>
   </si>
   <si>
-    <t>vs 2.2 - added PLA CF - 22 Jul 25</t>
+    <t>Galaxy PLA</t>
+  </si>
+  <si>
+    <t>8.7% ± 1.2%</t>
+  </si>
+  <si>
+    <t>2719 ± 172</t>
+  </si>
+  <si>
+    <t>75 ± 2</t>
+  </si>
+  <si>
+    <t>56.3 ± 3.5</t>
+  </si>
+  <si>
+    <t>Sleek glossy finish that sparkles beautifully</t>
+  </si>
+  <si>
+    <t>Dreamy galaxy visuals, stunning aesthetic</t>
+  </si>
+  <si>
+    <t>Silk PLA</t>
+  </si>
+  <si>
+    <t>26 ± 3</t>
+  </si>
+  <si>
+    <t>9.7% ± 2.3%</t>
+  </si>
+  <si>
+    <t>2816 ± 136</t>
+  </si>
+  <si>
+    <t>79 ± 2</t>
+  </si>
+  <si>
+    <t>25.5 ± 2,2</t>
+  </si>
+  <si>
+    <t>vs 2.3 - added Silk &amp; Galaxy PLA - 22 Jul 25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,6 +666,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -633,7 +681,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -665,11 +713,24 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border diagonalDown="1">
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal style="thick">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -692,6 +753,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -699,12 +766,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1022,10 +1091,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1036,95 +1105,65 @@
     <col min="6" max="16" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="11"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="12"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1149,32 +1188,14 @@
       <c r="H4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1199,32 +1220,14 @@
       <c r="H5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" s="4" t="s">
+      <c r="I5" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J5" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1249,32 +1252,14 @@
       <c r="H6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="I6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1299,32 +1284,14 @@
       <c r="H7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="I7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1352,26 +1319,8 @@
       <c r="J8" t="s">
         <v>10</v>
       </c>
-      <c r="K8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" t="s">
-        <v>10</v>
-      </c>
-      <c r="P8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1394,54 +1343,30 @@
         <v>12</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="12"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1464,34 +1389,16 @@
         <v>1.26</v>
       </c>
       <c r="H11" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="J11" s="8">
         <v>1.24</v>
       </c>
-      <c r="I11" s="1">
-        <v>1.29</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1.27</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1.29</v>
-      </c>
-      <c r="L11" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="N11" s="1">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="O11" s="1">
-        <v>1.08</v>
-      </c>
-      <c r="P11" s="4">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1514,34 +1421,16 @@
         <v>163</v>
       </c>
       <c r="H12" s="1">
+        <v>162</v>
+      </c>
+      <c r="I12" s="8">
+        <v>164</v>
+      </c>
+      <c r="J12" s="8">
         <v>163</v>
       </c>
-      <c r="I12" s="1">
-        <v>216</v>
-      </c>
-      <c r="J12" s="1">
-        <v>218</v>
-      </c>
-      <c r="K12" s="1">
-        <v>226</v>
-      </c>
-      <c r="L12" s="1">
-        <v>226</v>
-      </c>
-      <c r="M12" s="1">
-        <v>188</v>
-      </c>
-      <c r="N12" s="1">
-        <v>214</v>
-      </c>
-      <c r="O12" s="1">
-        <v>225</v>
-      </c>
-      <c r="P12" s="4">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1564,34 +1453,16 @@
         <v>63</v>
       </c>
       <c r="H13" s="1">
+        <v>62</v>
+      </c>
+      <c r="I13" s="8">
+        <v>58</v>
+      </c>
+      <c r="J13" s="8">
         <v>64</v>
       </c>
-      <c r="I13" s="1">
-        <v>70</v>
-      </c>
-      <c r="J13" s="1">
-        <v>71</v>
-      </c>
-      <c r="K13" s="1">
-        <v>83</v>
-      </c>
-      <c r="L13" s="1">
-        <v>83</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N13" s="1">
-        <v>102</v>
-      </c>
-      <c r="O13" s="1">
-        <v>225</v>
-      </c>
-      <c r="P13" s="4">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1616,52 +1487,28 @@
       <c r="H14" s="1">
         <v>56</v>
       </c>
-      <c r="I14" s="1">
-        <v>72</v>
-      </c>
-      <c r="J14" s="1">
-        <v>73</v>
-      </c>
-      <c r="K14" s="1">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="L14" s="1">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N14" s="1">
-        <v>99</v>
-      </c>
-      <c r="O14" s="1">
-        <v>193</v>
-      </c>
-      <c r="P14" s="4">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+      <c r="I14" s="8">
+        <v>54</v>
+      </c>
+      <c r="J14" s="8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="12"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1684,34 +1531,16 @@
         <v>76</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1734,34 +1563,16 @@
         <v>85</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1784,34 +1595,16 @@
         <v>96</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1834,32 +1627,16 @@
         <v>107</v>
       </c>
       <c r="H19" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1882,32 +1659,16 @@
         <v>118</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1915,16 +1676,8 @@
       <c r="F21" s="5"/>
       <c r="G21" s="6"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-    </row>
-    <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.35">
       <c r="C22" s="7" t="s">
         <v>163</v>
       </c>
@@ -1940,35 +1693,17 @@
       <c r="G22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.35">
       <c r="C23" s="7" t="s">
         <v>164</v>
       </c>
@@ -1984,35 +1719,17 @@
       <c r="G23" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.35">
       <c r="C24" s="7" t="s">
         <v>156</v>
       </c>
@@ -2028,35 +1745,17 @@
       <c r="G24" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:10" ht="20" x14ac:dyDescent="0.35">
       <c r="C25" s="7" t="s">
         <v>165</v>
       </c>
@@ -2072,48 +1771,712 @@
       <c r="G25" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>151</v>
+      <c r="H25" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>182</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K25" s="7" t="s">
+    </row>
+    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="11"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1.27</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="J39" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="1">
+        <v>216</v>
+      </c>
+      <c r="D40" s="1">
+        <v>218</v>
+      </c>
+      <c r="E40" s="1">
+        <v>226</v>
+      </c>
+      <c r="F40" s="1">
+        <v>226</v>
+      </c>
+      <c r="G40" s="1">
+        <v>188</v>
+      </c>
+      <c r="H40" s="1">
+        <v>214</v>
+      </c>
+      <c r="I40" s="1">
+        <v>225</v>
+      </c>
+      <c r="J40" s="4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="1">
+        <v>70</v>
+      </c>
+      <c r="D41" s="1">
+        <v>71</v>
+      </c>
+      <c r="E41" s="1">
+        <v>83</v>
+      </c>
+      <c r="F41" s="1">
+        <v>83</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H41" s="1">
+        <v>102</v>
+      </c>
+      <c r="I41" s="1">
+        <v>225</v>
+      </c>
+      <c r="J41" s="4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="1">
+        <v>72</v>
+      </c>
+      <c r="D42" s="1">
+        <v>73</v>
+      </c>
+      <c r="E42" s="1">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="F42" s="1">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H42" s="1">
+        <v>99</v>
+      </c>
+      <c r="I42" s="1">
+        <v>193</v>
+      </c>
+      <c r="J42" s="4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.35">
+      <c r="C50" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.35">
+      <c r="C51" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.35">
+      <c r="C52" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="20" x14ac:dyDescent="0.35">
+      <c r="C53" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>177</v>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
+  <mergeCells count="26">
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A10:P10"/>
-    <mergeCell ref="A15:P15"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A15:J15"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="55" orientation="landscape" blackAndWhite="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" orientation="landscape" blackAndWhite="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>